--- a/Reviews/2015/Timeintervals.xlsx
+++ b/Reviews/2015/Timeintervals.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">  - UC-TR-03 (Ferhat) :</t>
   </si>
@@ -51,14 +51,59 @@
   </si>
   <si>
     <t xml:space="preserve">  - UC-TR-02 (Ersan) : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - WP1 (Anne) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - WP2 (Claire) :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - WP3 (Ferhat) : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - WP4 (Erhan) : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - WP5 (Ferhat) : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - WP6 (Yvan) :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - WP7 (Yvan) : </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Marc's suggestions</t>
+  </si>
+  <si>
+    <t>Exploitation Prospects (Ferhat)</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,8 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,21 +421,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -397,7 +460,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -411,7 +474,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -425,7 +488,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -439,7 +502,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -453,7 +516,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -467,7 +530,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8">
@@ -481,7 +544,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9">
@@ -495,7 +558,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10">
@@ -509,20 +572,86 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
         <f>SUM(B2:B10)</f>
         <v>49</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f>SUM(C2:C10)</f>
         <v>45</v>
       </c>
-      <c r="D11">
-        <f>SUM(D2:D10)</f>
-        <v>36</v>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>9+3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>SUM(B16:B22)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reviews/2015/Timeintervals.xlsx
+++ b/Reviews/2015/Timeintervals.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">  - UC-TR-03 (Ferhat) :</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Exploitation Prospects (Ferhat)</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -424,7 +421,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +572,9 @@
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11">
         <v>2</v>
       </c>
@@ -585,8 +585,8 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <f>SUM(C2:C10)</f>
-        <v>45</v>
+        <f>SUM(C2:C11)</f>
+        <v>47</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D11)</f>
@@ -597,8 +597,8 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B16">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,16 +638,22 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>SUM(B16:B22)</f>
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
